--- a/global_data/day_data/002577.xlsx
+++ b/global_data/day_data/002577.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3250"/>
+  <dimension ref="A1:I3252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -94658,6 +94660,64 @@
         <v>0.01107964810333433</v>
       </c>
     </row>
+    <row r="3251" spans="1:9">
+      <c r="A3251" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B3251">
+        <v>19.3</v>
+      </c>
+      <c r="C3251">
+        <v>19.83</v>
+      </c>
+      <c r="D3251">
+        <v>19.15</v>
+      </c>
+      <c r="E3251">
+        <v>19.68</v>
+      </c>
+      <c r="F3251">
+        <v>3497500</v>
+      </c>
+      <c r="G3251">
+        <v>68800104</v>
+      </c>
+      <c r="H3251">
+        <v>281741800</v>
+      </c>
+      <c r="I3251">
+        <v>0.01241384842433746</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:9">
+      <c r="A3252" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B3252">
+        <v>20.37</v>
+      </c>
+      <c r="C3252">
+        <v>21.3</v>
+      </c>
+      <c r="D3252">
+        <v>20.03</v>
+      </c>
+      <c r="E3252">
+        <v>20.5</v>
+      </c>
+      <c r="F3252">
+        <v>13055900</v>
+      </c>
+      <c r="G3252">
+        <v>268001937</v>
+      </c>
+      <c r="H3252">
+        <v>281741800</v>
+      </c>
+      <c r="I3252">
+        <v>0.04633994671717154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
